--- a/main/cmy2lab/results/nn_RandomForestRegressor_results.xlsx
+++ b/main/cmy2lab/results/nn_RandomForestRegressor_results.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.737997223539703</v>
+        <v>0.1304784133294947</v>
       </c>
       <c r="C2" t="n">
-        <v>1.488114434934786</v>
+        <v>0.1146817479621017</v>
       </c>
       <c r="D2" t="n">
-        <v>5.44656816682537</v>
+        <v>0.4466272449757955</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.72477186609027</v>
+        <v>0.1279693988032783</v>
       </c>
       <c r="C3" t="n">
-        <v>1.435497997144046</v>
+        <v>0.1111520004404842</v>
       </c>
       <c r="D3" t="n">
-        <v>5.068091521358242</v>
+        <v>0.4283422416925596</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.460965939045118</v>
+        <v>0.1090450191952905</v>
       </c>
       <c r="C4" t="n">
-        <v>1.053186516938557</v>
+        <v>0.0877040007501224</v>
       </c>
       <c r="D4" t="n">
-        <v>5.258858495214626</v>
+        <v>0.4395347694002713</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.463818466865771</v>
+        <v>0.1098244415508689</v>
       </c>
       <c r="C5" t="n">
-        <v>1.025056145128342</v>
+        <v>0.09034988407620226</v>
       </c>
       <c r="D5" t="n">
-        <v>5.280529197070793</v>
+        <v>0.4326005317635317</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.469628219005383</v>
+        <v>0.1104134111878808</v>
       </c>
       <c r="C6" t="n">
-        <v>1.024631831168196</v>
+        <v>0.08999784659186827</v>
       </c>
       <c r="D6" t="n">
-        <v>5.245953022954223</v>
+        <v>0.4324065337140782</v>
       </c>
     </row>
   </sheetData>
